--- a/Resumen_resultados.xlsx
+++ b/Resumen_resultados.xlsx
@@ -15,33 +15,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Angel Navia Vázquez</author>
-  </authors>
-  <commentList>
-    <comment ref="M10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">samplefraction 0.001
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="20">
   <si>
     <t>NC</t>
   </si>
@@ -84,12 +59,30 @@
   <si>
     <t>random_IRWLS</t>
   </si>
+  <si>
+    <t>kernelgrad</t>
+  </si>
+  <si>
+    <t>Coarse run</t>
+  </si>
+  <si>
+    <t>da AUC = 0.5 en todos los casos, revisar?</t>
+  </si>
+  <si>
+    <t>Niter = 300</t>
+  </si>
+  <si>
+    <t>Nworkers</t>
+  </si>
+  <si>
+    <t>Niter = 150</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,23 +98,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -144,15 +142,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,11 +465,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,56 +478,62 @@
     <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" customWidth="1"/>
-    <col min="7" max="7" width="3.88671875" customWidth="1"/>
-    <col min="8" max="8" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" customWidth="1"/>
-    <col min="14" max="14" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.109375" customWidth="1"/>
-    <col min="18" max="18" width="4.5546875" customWidth="1"/>
-    <col min="19" max="19" width="1.21875" customWidth="1"/>
-    <col min="20" max="20" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.88671875" customWidth="1"/>
-    <col min="25" max="25" width="2" customWidth="1"/>
-    <col min="26" max="26" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" customWidth="1"/>
+    <col min="8" max="8" width="3.88671875" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="4.6640625" customWidth="1"/>
+    <col min="16" max="16" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.109375" customWidth="1"/>
+    <col min="21" max="21" width="8.6640625" customWidth="1"/>
+    <col min="22" max="22" width="1.21875" customWidth="1"/>
+    <col min="23" max="23" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.88671875" customWidth="1"/>
+    <col min="28" max="28" width="2" customWidth="1"/>
+    <col min="29" max="29" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>12</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>9</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="O4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,68 +549,77 @@
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -608,62 +635,65 @@
       <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="G6" s="1">
+      <c r="F6" s="1"/>
+      <c r="H6" s="1">
         <v>5</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>0.89200000000000002</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>0.89400000000000002</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>0.88800000000000001</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="M6" s="1">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="O6" s="1">
         <v>5</v>
       </c>
-      <c r="N6" s="1">
+      <c r="P6" s="1">
         <v>0.89800000000000002</v>
       </c>
-      <c r="O6" s="1">
+      <c r="Q6" s="1">
         <v>0.9012</v>
       </c>
-      <c r="P6" s="1">
+      <c r="R6" s="1">
         <v>0.89700000000000002</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="S6" s="1">
         <v>80</v>
       </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1">
+      <c r="T6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1">
         <v>0.75939999999999996</v>
       </c>
-      <c r="U6" s="1">
+      <c r="X6" s="1">
         <v>0.75960000000000005</v>
       </c>
-      <c r="V6" s="1">
+      <c r="Y6" s="1">
         <v>0.7571</v>
       </c>
-      <c r="W6" s="1">
+      <c r="Z6" s="1">
         <v>6.4</v>
       </c>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1">
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1">
         <v>0.71640000000000004</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AD6" s="1">
         <v>0.71540000000000004</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AE6" s="1">
         <v>0.71589999999999998</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AF6" s="1">
         <v>19.2</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>20</v>
       </c>
@@ -679,48 +709,51 @@
       <c r="E7" s="1">
         <v>6</v>
       </c>
-      <c r="G7" s="1">
+      <c r="F7" s="1"/>
+      <c r="H7" s="1">
         <v>20</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>0.88900000000000001</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>0.88600000000000001</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>0.88500000000000001</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>15</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="1"/>
+      <c r="O7" s="1">
         <v>20</v>
       </c>
-      <c r="N7" s="1">
+      <c r="P7" s="1">
         <v>0.89600000000000002</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>0.9</v>
       </c>
-      <c r="P7" s="1">
+      <c r="R7" s="1">
         <v>0.89700000000000002</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="S7" s="1">
         <v>90</v>
       </c>
-      <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="3"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>50</v>
       </c>
@@ -736,298 +769,413 @@
       <c r="E8" s="1">
         <v>8.4</v>
       </c>
-      <c r="G8" s="1">
+      <c r="F8" s="1"/>
+      <c r="H8" s="1">
         <v>50</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>0.88900000000000001</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>0.88800000000000001</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>0.88470000000000004</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>48</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="1"/>
+      <c r="O8" s="1">
         <v>50</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0.89600000000000002</v>
       </c>
       <c r="P8" s="1">
         <v>0.89200000000000002</v>
       </c>
       <c r="Q8" s="1">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="S8" s="1">
         <v>131</v>
       </c>
-      <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>100</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="E9" s="4">
+        <v>7.13</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="H9" s="1">
+        <v>100</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.9042</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.90049999999999997</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.90020999999999995</v>
+      </c>
+      <c r="L9" s="4">
+        <v>62</v>
+      </c>
+      <c r="M9" s="4">
+        <v>72</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="1">
+        <v>100</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="S9" s="4">
+        <v>5</v>
+      </c>
+      <c r="T9" s="4"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="M10" s="1">
-        <v>5</v>
-      </c>
-      <c r="N10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="O11" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>20</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="H12" s="1">
+        <v>20</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="S12" s="1"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="O12" s="1">
+        <v>5</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.89990000000000003</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.89739999999999998</v>
+      </c>
+      <c r="S12" s="4">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>50</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="H13" s="1">
+        <v>50</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="O13" s="1">
+        <v>20</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0.90180000000000005</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0.89890000000000003</v>
+      </c>
+      <c r="S13" s="4">
+        <v>7.72</v>
+      </c>
+      <c r="T13" s="1">
+        <v>76</v>
+      </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>100</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="H14" s="1">
+        <v>100</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4">
+        <v>72</v>
+      </c>
+      <c r="O14" s="1">
+        <v>50</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="4"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="O15" s="1">
+        <v>100</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="4"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="F16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,25 +1191,59 @@
       <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="F22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>5</v>
       </c>
-      <c r="B23" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="1"/>
+      <c r="O23" s="1">
+        <v>5</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0.7974</v>
+      </c>
+      <c r="S23" s="4">
+        <v>2.87</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="Y23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z23" s="6"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1069,8 +1251,25 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="F24" s="1"/>
+      <c r="O24" s="1">
+        <v>20</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="S24" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>50</v>
       </c>
@@ -1078,83 +1277,192 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="F25" s="1"/>
+      <c r="O25" s="1">
+        <v>50</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.74970000000000003</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0.75788</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0.75290000000000001</v>
+      </c>
+      <c r="S25" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="F26" s="4">
+        <v>72</v>
+      </c>
+      <c r="O26" s="1">
+        <v>100</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="S26" s="4">
+        <v>2.33</v>
+      </c>
+      <c r="T26" s="4"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="F27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="F28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="F29" s="1"/>
+      <c r="O29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="F30" s="1"/>
+      <c r="O30" s="1">
+        <v>5</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0.89990000000000003</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0.89739999999999998</v>
+      </c>
+      <c r="S30" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="F31" s="1"/>
+      <c r="O31" s="1">
+        <v>20</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="1"/>
+      <c r="O32" s="1">
+        <v>50</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="1"/>
+      <c r="O33" s="1">
+        <v>100</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC17"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:K7"/>
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1711,6 +2019,208 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
     </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>5</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="M23" s="1">
+        <v>5</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="4"/>
+      <c r="T23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U23" s="6"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="M24" s="1">
+        <v>20</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="M25" s="1">
+        <v>50</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="M26" s="1">
+        <v>100</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Resumen_resultados.xlsx
+++ b/Resumen_resultados.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="72" windowWidth="19416" windowHeight="9528"/>
+    <workbookView xWindow="480" yWindow="72" windowWidth="19416" windowHeight="9528" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Adult" sheetId="1" r:id="rId1"/>
     <sheet name="SUSY" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="HIGGS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="18">
   <si>
     <t>NC</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>hybrid_IRWLS</t>
-  </si>
-  <si>
-    <t>En general se asignan 74 nodos a este dataset</t>
   </si>
   <si>
     <t>SGMA_IRWLS</t>
@@ -66,23 +63,20 @@
     <t>Coarse run</t>
   </si>
   <si>
-    <t>da AUC = 0.5 en todos los casos, revisar?</t>
-  </si>
-  <si>
     <t>Niter = 300</t>
   </si>
   <si>
-    <t>Nworkers</t>
+    <t>Niter = 150</t>
   </si>
   <si>
-    <t>Niter = 150</t>
+    <t>NCPUs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,8 +92,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,12 +150,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -151,11 +193,202 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -163,8 +396,54 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,165 +745,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF34"/>
+  <dimension ref="B1:AG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" customWidth="1"/>
-    <col min="8" max="8" width="3.88671875" customWidth="1"/>
-    <col min="9" max="9" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.109375" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" customWidth="1"/>
-    <col min="15" max="15" width="4.6640625" customWidth="1"/>
-    <col min="16" max="16" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.109375" customWidth="1"/>
-    <col min="21" max="21" width="8.6640625" customWidth="1"/>
-    <col min="22" max="22" width="1.21875" customWidth="1"/>
-    <col min="23" max="23" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.88671875" customWidth="1"/>
-    <col min="28" max="28" width="2" customWidth="1"/>
-    <col min="29" max="29" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.88671875" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.77734375" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" customWidth="1"/>
+    <col min="9" max="9" width="3.88671875" customWidth="1"/>
+    <col min="10" max="10" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.109375" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="4.6640625" customWidth="1"/>
+    <col min="17" max="17" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.109375" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" customWidth="1"/>
+    <col min="23" max="23" width="1.21875" customWidth="1"/>
+    <col min="24" max="24" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.88671875" customWidth="1"/>
+    <col min="29" max="29" width="2" customWidth="1"/>
+    <col min="30" max="30" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="AC3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="P4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AB3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="O4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="M5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="T5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="AG5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
         <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.84</v>
       </c>
       <c r="C6" s="1">
         <v>0.84</v>
@@ -633,823 +910,1003 @@
         <v>0.84</v>
       </c>
       <c r="E6" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="H6" s="1">
+      <c r="G6" s="1"/>
+      <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>0.89200000000000002</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>0.89400000000000002</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>0.88800000000000001</v>
       </c>
-      <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="O6" s="1">
+      <c r="N6" s="1"/>
+      <c r="P6" s="1">
         <v>5</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>0.89800000000000002</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>0.9012</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <v>0.89700000000000002</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <v>80</v>
       </c>
-      <c r="T6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1">
+      <c r="U6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1">
         <v>0.75939999999999996</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Y6" s="1">
         <v>0.75960000000000005</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Z6" s="1">
         <v>0.7571</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AA6" s="1">
         <v>6.4</v>
       </c>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1">
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1">
         <v>0.71640000000000004</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AE6" s="1">
         <v>0.71540000000000004</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AF6" s="1">
         <v>0.71589999999999998</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AG6" s="1">
         <v>19.2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
         <v>20</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>0.87570000000000003</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>0.88</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>0.876</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>6</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="H7" s="1">
+      <c r="G7" s="1"/>
+      <c r="I7" s="1">
         <v>20</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>0.88900000000000001</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>0.88600000000000001</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>0.88500000000000001</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>15</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="O7" s="1">
+      <c r="N7" s="1"/>
+      <c r="P7" s="1">
         <v>20</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>0.89600000000000002</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>0.9</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <v>0.89700000000000002</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <v>90</v>
       </c>
-      <c r="T7" s="1"/>
-      <c r="V7" s="1"/>
+      <c r="U7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-      <c r="AB7" s="1"/>
+      <c r="AA7" s="1"/>
       <c r="AC7" s="1"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="3"/>
       <c r="AF7" s="1"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="AG7" s="1"/>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
         <v>50</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>0.89600000000000002</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>0.89700000000000002</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>0.89400000000000002</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>8.4</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="H8" s="1">
+      <c r="G8" s="1"/>
+      <c r="I8" s="1">
         <v>50</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>0.88900000000000001</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>0.88800000000000001</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>0.88470000000000004</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>48</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="O8" s="1">
+      <c r="N8" s="1"/>
+      <c r="P8" s="1">
         <v>50</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>0.89200000000000002</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>0.89600000000000002</v>
       </c>
-      <c r="R8" s="1">
+      <c r="S8" s="1">
         <v>0.89200000000000002</v>
       </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <v>131</v>
       </c>
-      <c r="T8" s="1"/>
-      <c r="V8" s="1"/>
+      <c r="U8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-      <c r="AB8" s="1"/>
+      <c r="AA8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="AG8" s="1"/>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
         <v>100</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>0.90229999999999999</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>0.9</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>0.89900000000000002</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>7.13</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="H9" s="1">
+      <c r="G9" s="4"/>
+      <c r="I9" s="1">
         <v>100</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>0.9042</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>0.90049999999999997</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>0.90020999999999995</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>62</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>72</v>
       </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="1">
+      <c r="O9" s="7"/>
+      <c r="P9" s="1">
         <v>100</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>0.88480000000000003</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>0.88900000000000001</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S9" s="1">
         <v>0.88600000000000001</v>
       </c>
-      <c r="S9" s="4">
+      <c r="T9" s="4">
         <v>5</v>
       </c>
-      <c r="T9" s="4"/>
-      <c r="V9" s="1"/>
+      <c r="U9" s="4"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-      <c r="AB9" s="1"/>
+      <c r="AA9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="AG9" s="1"/>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="N10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="V10" s="1"/>
+      <c r="U10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AB10" s="1"/>
+      <c r="AA10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="AG10" s="1"/>
+    </row>
+    <row r="11" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="10">
         <v>5</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="H11" s="1">
-        <v>5</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="O11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="1"/>
+      <c r="J11" s="10">
+        <v>0.8952</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0.89529999999999998</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0.8921</v>
+      </c>
+      <c r="M11" s="11">
+        <v>1.73</v>
+      </c>
+      <c r="N11" s="11">
+        <v>81</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="V11" s="1"/>
+      <c r="U11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
-      <c r="AB11" s="1"/>
+      <c r="AA11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="AG11" s="1"/>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B12" s="20">
+        <v>5</v>
+      </c>
+      <c r="C12" s="21">
+        <v>0.77</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0.78</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.77</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="23">
+        <v>65</v>
+      </c>
+      <c r="I12" s="10">
         <v>20</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="H12" s="1">
-        <v>20</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="O12" s="1">
+      <c r="J12" s="10">
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="M12" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="N12" s="11">
+        <v>100</v>
+      </c>
+      <c r="P12" s="1">
         <v>5</v>
       </c>
-      <c r="P12" s="2">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0.89990000000000003</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0.89739999999999998</v>
-      </c>
-      <c r="S12" s="4">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="T12" s="1"/>
-      <c r="V12" s="1"/>
+      <c r="Q12" s="10">
+        <v>0.89749999999999996</v>
+      </c>
+      <c r="R12" s="10">
+        <v>0.89949999999999997</v>
+      </c>
+      <c r="S12" s="10">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="T12" s="11">
+        <v>7.98</v>
+      </c>
+      <c r="U12" s="11">
+        <v>100</v>
+      </c>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-      <c r="AB12" s="1"/>
+      <c r="AA12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="AG12" s="1"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B13" s="24">
+        <v>20</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.87939999999999996</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.87939999999999996</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1.77</v>
+      </c>
+      <c r="G13" s="25">
+        <v>65</v>
+      </c>
+      <c r="I13" s="10">
         <v>50</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="H13" s="1">
-        <v>50</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="O13" s="1">
+      <c r="J13" s="10">
+        <v>0.90359999999999996</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0.90059999999999996</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0.90010000000000001</v>
+      </c>
+      <c r="M13" s="11">
+        <v>41.26</v>
+      </c>
+      <c r="N13" s="11">
+        <v>100</v>
+      </c>
+      <c r="P13" s="1">
         <v>20</v>
       </c>
-      <c r="P13" s="2">
-        <v>0.89910000000000001</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0.90180000000000005</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0.89890000000000003</v>
-      </c>
-      <c r="S13" s="4">
-        <v>7.72</v>
-      </c>
-      <c r="T13" s="1">
-        <v>76</v>
-      </c>
-      <c r="V13" s="1"/>
+      <c r="Q13" s="10">
+        <v>0.89959999999999996</v>
+      </c>
+      <c r="R13" s="10">
+        <v>0.9022</v>
+      </c>
+      <c r="S13" s="10">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="T13" s="11">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="U13" s="11">
+        <v>100</v>
+      </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
-      <c r="AB13" s="1"/>
+      <c r="AA13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="AG13" s="1"/>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B14" s="24">
+        <v>50</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.89870000000000005</v>
+      </c>
+      <c r="F14" s="11">
+        <v>3.99</v>
+      </c>
+      <c r="G14" s="25">
+        <v>65</v>
+      </c>
+      <c r="I14" s="10">
         <v>100</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="H14" s="1">
+      <c r="J14" s="10">
+        <v>0.90429999999999999</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0.90110000000000001</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0.89959999999999996</v>
+      </c>
+      <c r="M14" s="11">
+        <v>63.55</v>
+      </c>
+      <c r="N14" s="11">
         <v>100</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4">
-        <v>72</v>
-      </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <v>50</v>
       </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="1"/>
-      <c r="V14" s="1"/>
+      <c r="Q14" s="10">
+        <v>0.89659999999999995</v>
+      </c>
+      <c r="R14" s="10">
+        <v>0.9002</v>
+      </c>
+      <c r="S14" s="10">
+        <v>0.89680000000000004</v>
+      </c>
+      <c r="T14" s="11">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="U14" s="11">
+        <v>100</v>
+      </c>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-      <c r="AB14" s="1"/>
+      <c r="AA14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="AG14" s="1"/>
+    </row>
+    <row r="15" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="26">
+        <v>100</v>
+      </c>
+      <c r="C15" s="27">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="D15" s="27">
+        <v>0.9012</v>
+      </c>
+      <c r="E15" s="27">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="F15" s="28">
+        <v>7.03</v>
+      </c>
+      <c r="G15" s="29">
+        <v>81</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="O15" s="1">
+      <c r="N15" s="1"/>
+      <c r="P15" s="1">
         <v>100</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="1"/>
-      <c r="V15" s="1"/>
+      <c r="Q15" s="10">
+        <v>0.89319999999999999</v>
+      </c>
+      <c r="R15" s="10">
+        <v>0.89739999999999998</v>
+      </c>
+      <c r="S15" s="10">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="T15" s="11">
+        <v>8.34</v>
+      </c>
+      <c r="U15" s="11">
+        <v>100</v>
+      </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-      <c r="AB15" s="1"/>
+      <c r="AA15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+      <c r="AG15" s="1"/>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="N16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="V16" s="1"/>
+      <c r="U16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-      <c r="AB16" s="1"/>
+      <c r="AA16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
+      <c r="AG16" s="1"/>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="N17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="V17" s="1"/>
+      <c r="U17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
-      <c r="AB17" s="1"/>
+      <c r="AA17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="AG17" s="1"/>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="P20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="O20" t="s">
+    </row>
+    <row r="21" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B22" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B23" s="24">
+        <v>5</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.81410000000000005</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.82089999999999996</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0.46</v>
+      </c>
+      <c r="G23" s="25">
+        <v>65</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="P23" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0.7974</v>
+      </c>
+      <c r="T23" s="4">
+        <v>2.87</v>
+      </c>
+      <c r="U23" s="1"/>
+      <c r="Z23" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>5</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="1"/>
-      <c r="O23" s="1">
-        <v>5</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="R23" s="1">
-        <v>0.7974</v>
-      </c>
-      <c r="S23" s="4">
-        <v>2.87</v>
-      </c>
-      <c r="T23" s="1"/>
-      <c r="Y23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z23" s="6"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="AA23" s="6"/>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B24" s="24">
         <v>20</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="1"/>
-      <c r="O24" s="1">
+      <c r="C24" s="10">
+        <v>0.87219999999999998</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.87490000000000001</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.87119999999999997</v>
+      </c>
+      <c r="F24" s="11">
+        <v>1.23</v>
+      </c>
+      <c r="G24" s="25">
+        <v>65</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="P24" s="1">
         <v>20</v>
       </c>
-      <c r="P24" s="1">
+      <c r="Q24" s="1">
         <v>0.69</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="R24" s="2">
         <v>0.7</v>
       </c>
-      <c r="R24" s="1">
+      <c r="S24" s="1">
         <v>0.69699999999999995</v>
       </c>
-      <c r="S24" s="5">
+      <c r="T24" s="5">
         <v>2.5</v>
       </c>
-      <c r="T24" s="1"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B25" s="24">
         <v>50</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="1"/>
-      <c r="O25" s="1">
+      <c r="C25" s="10">
+        <v>0.88980000000000004</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0.88870000000000005</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0.88790000000000002</v>
+      </c>
+      <c r="F25" s="11">
+        <v>2.41</v>
+      </c>
+      <c r="G25" s="25">
+        <v>65</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="P25" s="1">
         <v>50</v>
       </c>
-      <c r="P25" s="1">
+      <c r="Q25" s="1">
         <v>0.74970000000000003</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="R25" s="1">
         <v>0.75788</v>
       </c>
-      <c r="R25" s="1">
+      <c r="S25" s="1">
         <v>0.75290000000000001</v>
       </c>
-      <c r="S25" s="4">
+      <c r="T25" s="4">
         <v>2.5</v>
       </c>
-      <c r="T25" s="1"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="4">
-        <v>72</v>
-      </c>
-      <c r="O26" s="1">
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="26">
         <v>100</v>
       </c>
+      <c r="C26" s="27">
+        <v>0.9012</v>
+      </c>
+      <c r="D26" s="27">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="E26" s="27">
+        <v>0.89790000000000003</v>
+      </c>
+      <c r="F26" s="28">
+        <v>2.52</v>
+      </c>
+      <c r="G26" s="29">
+        <v>81</v>
+      </c>
+      <c r="H26" s="9"/>
       <c r="P26" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="1">
         <v>0.78</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="R26" s="1">
         <v>0.77</v>
       </c>
-      <c r="R26" s="1">
+      <c r="S26" s="1">
         <v>0.78</v>
       </c>
-      <c r="S26" s="4">
+      <c r="T26" s="4">
         <v>2.33</v>
       </c>
-      <c r="T26" s="4"/>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="U26" s="4"/>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B27" s="19"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="9"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="9"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="O29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P29" s="1"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="9"/>
+      <c r="P29" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="O30" s="1">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="9"/>
+      <c r="P30" s="1">
         <v>5</v>
       </c>
-      <c r="P30" s="2">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>0.89990000000000003</v>
-      </c>
-      <c r="R30" s="2">
-        <v>0.89739999999999998</v>
-      </c>
-      <c r="S30" s="4">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="T30" s="1"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
+      <c r="Q30" s="10">
+        <v>0.6996</v>
+      </c>
+      <c r="R30" s="10">
+        <v>0.7107</v>
+      </c>
+      <c r="S30" s="10">
+        <v>0.70340000000000003</v>
+      </c>
+      <c r="T30" s="11">
+        <v>4.45</v>
+      </c>
+      <c r="U30" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="O31" s="1">
+      <c r="G31" s="1"/>
+      <c r="P31" s="1">
         <v>20</v>
       </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="1"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
+      <c r="Q31" s="10">
+        <v>0.82840000000000003</v>
+      </c>
+      <c r="R31" s="10">
+        <v>0.82469999999999999</v>
+      </c>
+      <c r="S31" s="10">
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="T31" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="U31" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="O32" s="1">
+      <c r="G32" s="1"/>
+      <c r="P32" s="1">
         <v>50</v>
       </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="1"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
+      <c r="Q32" s="10">
+        <v>0.82550000000000001</v>
+      </c>
+      <c r="R32" s="10">
+        <v>0.82269999999999999</v>
+      </c>
+      <c r="S32" s="10">
+        <v>0.8256</v>
+      </c>
+      <c r="T32" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="U32" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="O33" s="1">
+      <c r="G33" s="1"/>
+      <c r="P33" s="1">
         <v>100</v>
       </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="1"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
+      <c r="Q33" s="10">
+        <v>0.74339999999999995</v>
+      </c>
+      <c r="R33" s="10">
+        <v>0.75139999999999996</v>
+      </c>
+      <c r="S33" s="12">
+        <v>0.74670000000000003</v>
+      </c>
+      <c r="T33" s="11">
+        <v>4.57</v>
+      </c>
+      <c r="U33" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="O34" s="1"/>
+      <c r="G34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1459,68 +1916,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC34"/>
+  <dimension ref="A3:AF34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
     <col min="2" max="2" width="8.44140625" customWidth="1"/>
     <col min="3" max="3" width="8.77734375" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" customWidth="1"/>
-    <col min="12" max="12" width="4.77734375" customWidth="1"/>
-    <col min="13" max="13" width="7.109375" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" customWidth="1"/>
-    <col min="17" max="17" width="9.88671875" customWidth="1"/>
-    <col min="18" max="18" width="4.5546875" customWidth="1"/>
-    <col min="19" max="19" width="1.21875" customWidth="1"/>
-    <col min="20" max="20" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.88671875" customWidth="1"/>
-    <col min="25" max="25" width="2" customWidth="1"/>
-    <col min="26" max="26" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="12" max="12" width="5.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" customWidth="1"/>
+    <col min="14" max="14" width="4.77734375" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" customWidth="1"/>
+    <col min="17" max="17" width="8.77734375" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" customWidth="1"/>
+    <col min="19" max="19" width="9.88671875" customWidth="1"/>
+    <col min="20" max="20" width="3" customWidth="1"/>
+    <col min="21" max="21" width="0.77734375" customWidth="1"/>
+    <col min="22" max="22" width="5.44140625" customWidth="1"/>
+    <col min="23" max="23" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.44140625" customWidth="1"/>
+    <col min="27" max="27" width="3.88671875" customWidth="1"/>
+    <col min="28" max="28" width="6.44140625" customWidth="1"/>
+    <col min="29" max="29" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="AB3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1536,68 +1991,73 @@
       <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="13"/>
+      <c r="O5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" s="13"/>
+      <c r="V5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="Y5" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AC5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AE5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1613,56 +2073,59 @@
       <c r="E6" s="1">
         <v>19</v>
       </c>
-      <c r="G6" s="1">
+      <c r="F6" s="11"/>
+      <c r="H6" s="1">
         <v>5</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>0.84379999999999999</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>0.84350000000000003</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>0.84399999999999997</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>28</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="13"/>
+      <c r="O6" s="1">
         <v>5</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="1">
+      <c r="T6" s="13"/>
+      <c r="V6" s="1">
         <v>0.77200000000000002</v>
       </c>
-      <c r="U6" s="1">
+      <c r="W6" s="1">
         <v>0.77159999999999995</v>
       </c>
-      <c r="V6" s="1">
+      <c r="X6" s="1">
         <v>0.77239999999999998</v>
       </c>
-      <c r="W6" s="1">
+      <c r="Y6" s="1">
         <v>12.6</v>
       </c>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1">
+      <c r="Z6" s="11"/>
+      <c r="AB6" s="1">
         <v>0.747</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AC6" s="1">
         <v>0.74660000000000004</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AD6" s="1">
         <v>0.74680000000000002</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AE6" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AF6" s="11"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>20</v>
       </c>
@@ -1678,40 +2141,43 @@
       <c r="E7" s="1">
         <v>145</v>
       </c>
-      <c r="G7" s="1">
+      <c r="F7" s="11"/>
+      <c r="H7" s="1">
         <v>20</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>0.8609</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>0.86060000000000003</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>0.86099999999999999</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>89</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="13"/>
+      <c r="O7" s="1">
         <v>20</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
+      <c r="T7" s="13"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="3"/>
+      <c r="Z7" s="11"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="11"/>
+    </row>
+    <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>50</v>
       </c>
@@ -1727,40 +2193,43 @@
       <c r="E8" s="1">
         <v>151</v>
       </c>
-      <c r="G8" s="1">
+      <c r="F8" s="11"/>
+      <c r="H8" s="1">
         <v>50</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>0.86199999999999999</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>0.86099999999999999</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>0.86199999999999999</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>198</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="13"/>
+      <c r="O8" s="1">
         <v>50</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
+      <c r="T8" s="13"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="33"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="11"/>
+    </row>
+    <row r="9" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>100</v>
       </c>
@@ -1776,30 +2245,53 @@
       <c r="E9" s="1">
         <v>418</v>
       </c>
-      <c r="G9" s="1">
+      <c r="F9" s="11"/>
+      <c r="H9" s="1">
         <v>100</v>
       </c>
-      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="3"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="14"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="T9" s="13"/>
+      <c r="V9" s="35">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="W9" s="36">
+        <v>0.77159999999999995</v>
+      </c>
+      <c r="X9" s="36">
+        <v>0.77239999999999998</v>
+      </c>
+      <c r="Y9" s="36">
+        <v>0.46</v>
+      </c>
+      <c r="Z9" s="37">
+        <v>74</v>
+      </c>
+      <c r="AB9" s="35">
+        <v>0.747</v>
+      </c>
+      <c r="AC9" s="36">
+        <v>0.74660000000000004</v>
+      </c>
+      <c r="AD9" s="36">
+        <v>0.74680000000000002</v>
+      </c>
+      <c r="AE9" s="36">
+        <v>0.59</v>
+      </c>
+      <c r="AF9" s="37">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>200</v>
       </c>
@@ -1807,227 +2299,323 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
-      <c r="G10" s="1">
+      <c r="F10" s="11"/>
+      <c r="H10" s="1">
         <v>200</v>
       </c>
-      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="13"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
+      <c r="T10" s="13"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="34"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-    </row>
-    <row r="11" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="11"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="11"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="13"/>
+      <c r="O11" s="10">
+        <v>5</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="13"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
+      <c r="Z11" s="11"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
-    </row>
-    <row r="12" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="11"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>5</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.65649999999999997</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.65680000000000005</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.65629999999999999</v>
+      </c>
+      <c r="E12" s="10">
+        <v>21.16</v>
+      </c>
+      <c r="F12" s="54">
+        <v>159</v>
+      </c>
+      <c r="H12" s="10">
+        <v>5</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="13"/>
+      <c r="O12" s="17">
+        <v>20</v>
+      </c>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="13"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
+      <c r="Z12" s="11"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-    </row>
-    <row r="13" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="11"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>20</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.81850000000000001</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.81840000000000002</v>
+      </c>
+      <c r="E13" s="10">
+        <v>43</v>
+      </c>
+      <c r="F13" s="54">
+        <v>159</v>
+      </c>
+      <c r="H13" s="17">
+        <v>20</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="13"/>
+      <c r="O13" s="10">
+        <v>50</v>
+      </c>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="13"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
+      <c r="Z13" s="11"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-    </row>
-    <row r="14" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="11"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>50</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.85350000000000004</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="E14" s="10">
+        <v>134</v>
+      </c>
+      <c r="F14" s="54">
+        <v>159</v>
+      </c>
+      <c r="H14" s="10">
+        <v>50</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="13"/>
+      <c r="O14" s="10">
+        <v>100</v>
+      </c>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="13"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
+      <c r="Z14" s="11"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-    </row>
-    <row r="15" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="11"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>100</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.86380000000000001</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.86339999999999995</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="E15" s="10">
+        <v>143</v>
+      </c>
+      <c r="F15" s="11">
+        <v>159</v>
+      </c>
+      <c r="H15" s="10">
+        <v>100</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="13"/>
+      <c r="O15" s="10">
+        <v>200</v>
+      </c>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="13"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
+      <c r="Z15" s="11"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-    </row>
-    <row r="16" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="11"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>200</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11">
+        <v>63</v>
+      </c>
+      <c r="H16" s="10">
+        <v>200</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="13"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
+      <c r="T16" s="13"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
+      <c r="Z16" s="11"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-    </row>
-    <row r="17" spans="1:29" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="11"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="11"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="13"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
+      <c r="T17" s="13"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
+      <c r="Z17" s="11"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="11"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" t="s">
         <v>13</v>
       </c>
-      <c r="M20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -2041,25 +2629,27 @@
         <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="O22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="S22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T22" s="13"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -2067,19 +2657,21 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="M23" s="1">
+      <c r="F23" s="14"/>
+      <c r="O23" s="1">
         <v>5</v>
       </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="4"/>
-      <c r="T23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="U23" s="6"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="15"/>
+      <c r="W23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="X23" s="6"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2087,15 +2679,17 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="M24" s="1">
+      <c r="F24" s="14"/>
+      <c r="O24" s="1">
         <v>20</v>
       </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="2"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="5"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q24" s="2"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="16"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>50</v>
       </c>
@@ -2103,137 +2697,1000 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="M25" s="1">
+      <c r="F25" s="14"/>
+      <c r="O25" s="1">
         <v>50</v>
       </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="4"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="15"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="M26" s="1">
+      <c r="F26" s="13"/>
+      <c r="O26" s="1">
         <v>100</v>
       </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="4"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="15"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="F27" s="13"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="13"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>5</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="13"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="13"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A29" s="17">
+        <v>20</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="13"/>
+      <c r="O29" s="10">
+        <v>5</v>
+      </c>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="13"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>50</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="13"/>
+      <c r="O30" s="17">
+        <v>20</v>
+      </c>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="13"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>100</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="13"/>
+      <c r="O31" s="10">
+        <v>50</v>
+      </c>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="13"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>200</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="13"/>
+      <c r="O32" s="10">
+        <v>100</v>
+      </c>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="13"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F33" s="13"/>
+      <c r="O33" s="10">
+        <v>200</v>
+      </c>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="13"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
+      <c r="F34" s="13"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:AF34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="12" max="12" width="5.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" customWidth="1"/>
+    <col min="14" max="14" width="4.77734375" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" customWidth="1"/>
+    <col min="17" max="17" width="8.77734375" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" customWidth="1"/>
+    <col min="19" max="19" width="9.88671875" customWidth="1"/>
+    <col min="20" max="20" width="3" customWidth="1"/>
+    <col min="21" max="21" width="0.77734375" customWidth="1"/>
+    <col min="22" max="22" width="5.44140625" customWidth="1"/>
+    <col min="23" max="23" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.44140625" customWidth="1"/>
+    <col min="27" max="27" width="3.88671875" customWidth="1"/>
+    <col min="28" max="28" width="6.44140625" customWidth="1"/>
+    <col min="29" max="29" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="13"/>
+      <c r="O5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="13"/>
+      <c r="V5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="11"/>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="13"/>
+      <c r="O6" s="1">
+        <v>5</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="13"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="11"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="11"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="11"/>
+      <c r="H7" s="1">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="13"/>
+      <c r="O7" s="1">
+        <v>20</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="13"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="11"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="11"/>
+    </row>
+    <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="11"/>
+      <c r="H8" s="1">
+        <v>50</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="13"/>
+      <c r="O8" s="1">
+        <v>50</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="13"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="33"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="11"/>
+    </row>
+    <row r="9" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>100</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="11"/>
+      <c r="H9" s="1">
+        <v>100</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="14"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="13"/>
+      <c r="V9" s="39">
+        <v>0.62819999999999998</v>
+      </c>
+      <c r="W9" s="40">
+        <v>0.62829999999999997</v>
+      </c>
+      <c r="X9" s="40">
+        <v>0.62860000000000005</v>
+      </c>
+      <c r="Y9" s="40">
+        <v>1.86</v>
+      </c>
+      <c r="Z9" s="41">
+        <v>48</v>
+      </c>
+      <c r="AB9" s="39">
+        <v>0.5857</v>
+      </c>
+      <c r="AC9" s="40">
+        <v>0.58630000000000004</v>
+      </c>
+      <c r="AD9" s="40">
+        <v>0.58630000000000004</v>
+      </c>
+      <c r="AE9" s="40">
+        <v>1.58</v>
+      </c>
+      <c r="AF9" s="38">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>200</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="11"/>
+      <c r="H10" s="1">
+        <v>200</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="13"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="13"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="34"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="11"/>
+    </row>
+    <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="33"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="13"/>
+      <c r="O11" s="10">
+        <v>5</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="13"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="11"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="11"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" s="44">
+        <v>5</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
+      <c r="H12" s="10">
+        <v>5</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="13"/>
+      <c r="O12" s="17">
+        <v>20</v>
+      </c>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="13"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="11"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="11"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13" s="47">
+        <v>20</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
+      <c r="H13" s="17">
+        <v>20</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="13"/>
+      <c r="O13" s="10">
+        <v>50</v>
+      </c>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="13"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="11"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="11"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14" s="50">
+        <v>50</v>
+      </c>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
+      <c r="H14" s="10">
+        <v>50</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="13"/>
+      <c r="O14" s="10">
+        <v>100</v>
+      </c>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="13"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="11"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="11"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15" s="50">
+        <v>100</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
+      <c r="H15" s="10">
+        <v>100</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="13"/>
+      <c r="O15" s="10">
+        <v>200</v>
+      </c>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="13"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="11"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="11"/>
+    </row>
+    <row r="16" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="51">
+        <v>200</v>
+      </c>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53">
+        <v>111</v>
+      </c>
+      <c r="H16" s="10">
+        <v>200</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="13"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="13"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="11"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="11"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="13"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="13"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="11"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="11"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="O22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T22" s="13"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>5</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="14"/>
+      <c r="O23" s="1">
+        <v>5</v>
+      </c>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="15"/>
+      <c r="W23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="X23" s="6"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="14"/>
+      <c r="O24" s="1">
+        <v>20</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="16"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="14"/>
+      <c r="O25" s="1">
+        <v>50</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="15"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="13"/>
+      <c r="O26" s="1">
+        <v>100</v>
+      </c>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="15"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="13"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="13"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>5</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="13"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="13"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A29" s="17">
+        <v>20</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="13"/>
+      <c r="O29" s="10">
+        <v>5</v>
+      </c>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="13"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>50</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="13"/>
+      <c r="O30" s="17">
+        <v>20</v>
+      </c>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="13"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>100</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="13"/>
+      <c r="O31" s="10">
+        <v>50</v>
+      </c>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="13"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>200</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="13"/>
+      <c r="O32" s="10">
+        <v>100</v>
+      </c>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="13"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="13"/>
+      <c r="O33" s="10">
+        <v>200</v>
+      </c>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="13"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="13"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="13"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Resumen_resultados.xlsx
+++ b/Resumen_resultados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="72" windowWidth="19416" windowHeight="9528" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="72" windowWidth="19416" windowHeight="9528" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Adult" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="21">
   <si>
     <t>NC</t>
   </si>
@@ -71,12 +71,21 @@
   <si>
     <t>NCPUs</t>
   </si>
+  <si>
+    <t>izanami</t>
+  </si>
+  <si>
+    <t>amaterasu</t>
+  </si>
+  <si>
+    <t>kusanagi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,13 +118,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -135,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +162,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -388,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -409,41 +417,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1228,23 +1242,23 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B12" s="20">
+      <c r="B12" s="41">
         <v>5</v>
       </c>
-      <c r="C12" s="21">
-        <v>0.77</v>
-      </c>
-      <c r="D12" s="21">
-        <v>0.78</v>
-      </c>
-      <c r="E12" s="21">
-        <v>0.77</v>
-      </c>
-      <c r="F12" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="23">
-        <v>65</v>
+      <c r="C12" s="42">
+        <v>0.82379999999999998</v>
+      </c>
+      <c r="D12" s="42">
+        <v>0.83040000000000003</v>
+      </c>
+      <c r="E12" s="42">
+        <v>0.82410000000000005</v>
+      </c>
+      <c r="F12" s="42">
+        <v>0.35</v>
+      </c>
+      <c r="G12" s="43">
+        <v>63</v>
       </c>
       <c r="I12" s="10">
         <v>20</v>
@@ -1294,23 +1308,23 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B13" s="24">
+      <c r="B13" s="44">
         <v>20</v>
       </c>
-      <c r="C13" s="10">
-        <v>0.87939999999999996</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.87939999999999996</v>
-      </c>
-      <c r="F13" s="11">
-        <v>1.77</v>
-      </c>
-      <c r="G13" s="25">
-        <v>65</v>
+      <c r="C13" s="45">
+        <v>0.86809999999999998</v>
+      </c>
+      <c r="D13" s="45">
+        <v>0.87270000000000003</v>
+      </c>
+      <c r="E13" s="45">
+        <v>0.86870000000000003</v>
+      </c>
+      <c r="F13" s="45">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G13" s="46">
+        <v>63</v>
       </c>
       <c r="I13" s="10">
         <v>50</v>
@@ -1360,23 +1374,23 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B14" s="24">
+      <c r="B14" s="44">
         <v>50</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="45">
         <v>0.89939999999999998</v>
       </c>
-      <c r="D14" s="10">
-        <v>0.90080000000000005</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0.89870000000000005</v>
-      </c>
-      <c r="F14" s="11">
-        <v>3.99</v>
-      </c>
-      <c r="G14" s="25">
-        <v>65</v>
+      <c r="D14" s="45">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="E14" s="45">
+        <v>0.8982</v>
+      </c>
+      <c r="F14" s="45">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="G14" s="46">
+        <v>67</v>
       </c>
       <c r="I14" s="10">
         <v>100</v>
@@ -1426,23 +1440,23 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="26">
+      <c r="B15" s="47">
         <v>100</v>
       </c>
-      <c r="C15" s="27">
-        <v>0.90239999999999998</v>
-      </c>
-      <c r="D15" s="27">
-        <v>0.9012</v>
-      </c>
-      <c r="E15" s="27">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="F15" s="28">
-        <v>7.03</v>
-      </c>
-      <c r="G15" s="29">
-        <v>81</v>
+      <c r="C15" s="48">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="D15" s="48">
+        <v>0.89610000000000001</v>
+      </c>
+      <c r="E15" s="48">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="F15" s="48">
+        <v>5.35</v>
+      </c>
+      <c r="G15" s="49">
+        <v>67</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1479,13 +1493,25 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+    <row r="16" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="47">
+        <v>200</v>
+      </c>
+      <c r="C16" s="48">
+        <v>0.9032</v>
+      </c>
+      <c r="D16" s="48">
+        <v>0.89890000000000003</v>
+      </c>
+      <c r="E16" s="48">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="F16" s="48">
+        <v>110.34</v>
+      </c>
+      <c r="G16" s="49">
+        <v>67</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1553,22 +1579,22 @@
       </c>
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="43" t="s">
         <v>17</v>
       </c>
       <c r="P22" s="1" t="s">
@@ -1591,23 +1617,23 @@
       </c>
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B23" s="24">
+      <c r="B23" s="44">
         <v>5</v>
       </c>
-      <c r="C23" s="10">
-        <v>0.81640000000000001</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0.81410000000000005</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0.82089999999999996</v>
-      </c>
-      <c r="F23" s="11">
-        <v>0.46</v>
-      </c>
-      <c r="G23" s="25">
-        <v>65</v>
+      <c r="C23" s="45">
+        <v>0.77959999999999996</v>
+      </c>
+      <c r="D23" s="45">
+        <v>0.78269999999999995</v>
+      </c>
+      <c r="E23" s="45">
+        <v>0.78669999999999995</v>
+      </c>
+      <c r="F23" s="45">
+        <v>0.33</v>
+      </c>
+      <c r="G23" s="46">
+        <v>19</v>
       </c>
       <c r="H23" s="9"/>
       <c r="P23" s="1">
@@ -1632,23 +1658,23 @@
       <c r="AA23" s="6"/>
     </row>
     <row r="24" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B24" s="24">
+      <c r="B24" s="44">
         <v>20</v>
       </c>
-      <c r="C24" s="10">
-        <v>0.87219999999999998</v>
-      </c>
-      <c r="D24" s="10">
-        <v>0.87490000000000001</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0.87119999999999997</v>
-      </c>
-      <c r="F24" s="11">
-        <v>1.23</v>
-      </c>
-      <c r="G24" s="25">
-        <v>65</v>
+      <c r="C24" s="45">
+        <v>0.85219999999999996</v>
+      </c>
+      <c r="D24" s="45">
+        <v>0.8569</v>
+      </c>
+      <c r="E24" s="45">
+        <v>0.85440000000000005</v>
+      </c>
+      <c r="F24" s="45">
+        <v>2.95</v>
+      </c>
+      <c r="G24" s="46">
+        <v>19</v>
       </c>
       <c r="H24" s="9"/>
       <c r="P24" s="1">
@@ -1668,24 +1694,24 @@
       </c>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B25" s="24">
+    <row r="25" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="47">
         <v>50</v>
       </c>
-      <c r="C25" s="10">
-        <v>0.88980000000000004</v>
-      </c>
-      <c r="D25" s="10">
-        <v>0.88870000000000005</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0.88790000000000002</v>
-      </c>
-      <c r="F25" s="11">
-        <v>2.41</v>
-      </c>
-      <c r="G25" s="25">
-        <v>65</v>
+      <c r="C25" s="48">
+        <v>0.89970000000000006</v>
+      </c>
+      <c r="D25" s="48">
+        <v>0.8982</v>
+      </c>
+      <c r="E25" s="48">
+        <v>0.89690000000000003</v>
+      </c>
+      <c r="F25" s="48">
+        <v>6.23</v>
+      </c>
+      <c r="G25" s="49">
+        <v>19</v>
       </c>
       <c r="H25" s="9"/>
       <c r="P25" s="1">
@@ -1706,23 +1732,23 @@
       <c r="U25" s="1"/>
     </row>
     <row r="26" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="26">
+      <c r="B26" s="47">
         <v>100</v>
       </c>
-      <c r="C26" s="27">
-        <v>0.9012</v>
-      </c>
-      <c r="D26" s="27">
-        <v>0.89939999999999998</v>
-      </c>
-      <c r="E26" s="27">
-        <v>0.89790000000000003</v>
-      </c>
-      <c r="F26" s="28">
-        <v>2.52</v>
-      </c>
-      <c r="G26" s="29">
-        <v>81</v>
+      <c r="C26" s="48">
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="D26" s="48">
+        <v>0.90169999999999995</v>
+      </c>
+      <c r="E26" s="48">
+        <v>0.89959999999999996</v>
+      </c>
+      <c r="F26" s="48">
+        <v>69</v>
+      </c>
+      <c r="G26" s="49">
+        <v>19</v>
       </c>
       <c r="H26" s="9"/>
       <c r="P26" s="1">
@@ -1743,12 +1769,12 @@
       <c r="U26" s="4"/>
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B27" s="19"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="43"/>
       <c r="H27" s="9"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -1918,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AF34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2222,7 +2248,7 @@
       <c r="W8" s="18"/>
       <c r="X8" s="18"/>
       <c r="Y8" s="18"/>
-      <c r="Z8" s="33"/>
+      <c r="Z8" s="20"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
@@ -2260,34 +2286,34 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="13"/>
-      <c r="V9" s="35">
+      <c r="V9" s="22">
         <v>0.77200000000000002</v>
       </c>
-      <c r="W9" s="36">
+      <c r="W9" s="23">
         <v>0.77159999999999995</v>
       </c>
-      <c r="X9" s="36">
+      <c r="X9" s="23">
         <v>0.77239999999999998</v>
       </c>
-      <c r="Y9" s="36">
+      <c r="Y9" s="23">
         <v>0.46</v>
       </c>
-      <c r="Z9" s="37">
+      <c r="Z9" s="24">
         <v>74</v>
       </c>
-      <c r="AB9" s="35">
+      <c r="AB9" s="22">
         <v>0.747</v>
       </c>
-      <c r="AC9" s="36">
+      <c r="AC9" s="23">
         <v>0.74660000000000004</v>
       </c>
-      <c r="AD9" s="36">
+      <c r="AD9" s="23">
         <v>0.74680000000000002</v>
       </c>
-      <c r="AE9" s="36">
+      <c r="AE9" s="23">
         <v>0.59</v>
       </c>
-      <c r="AF9" s="37">
+      <c r="AF9" s="24">
         <v>74</v>
       </c>
     </row>
@@ -2318,20 +2344,20 @@
       <c r="W10" s="19"/>
       <c r="X10" s="19"/>
       <c r="Y10" s="19"/>
-      <c r="Z10" s="34"/>
+      <c r="Z10" s="21"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="11"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="11"/>
+    <row r="11" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="20"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2358,19 +2384,19 @@
       <c r="AF11" s="11"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="52">
         <v>5</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="53">
         <v>0.65649999999999997</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="53">
         <v>0.65680000000000005</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="53">
         <v>0.65629999999999999</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="53">
         <v>21.16</v>
       </c>
       <c r="F12" s="54">
@@ -2404,22 +2430,22 @@
       <c r="AF12" s="11"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+      <c r="A13" s="55">
         <v>20</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="50">
         <v>0.81850000000000001</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="50">
         <v>0.81799999999999995</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="50">
         <v>0.81840000000000002</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="50">
         <v>43</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="56">
         <v>159</v>
       </c>
       <c r="H13" s="17">
@@ -2450,22 +2476,22 @@
       <c r="AF13" s="11"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="57">
         <v>50</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="50">
         <v>0.85399999999999998</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="50">
         <v>0.85350000000000004</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="50">
         <v>0.85429999999999995</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="50">
         <v>134</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="56">
         <v>159</v>
       </c>
       <c r="H14" s="10">
@@ -2495,23 +2521,23 @@
       <c r="AE14" s="1"/>
       <c r="AF14" s="11"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+    <row r="15" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="58">
         <v>100</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="59">
         <v>0.86380000000000001</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="59">
         <v>0.86339999999999995</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="59">
         <v>0.86399999999999999</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="59">
         <v>143</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="60">
         <v>159</v>
       </c>
       <c r="H15" s="10">
@@ -2542,16 +2568,12 @@
       <c r="AF15" s="11"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
-        <v>200</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11">
-        <v>63</v>
-      </c>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="21"/>
       <c r="H16" s="10">
         <v>200</v>
       </c>
@@ -2723,13 +2745,25 @@
       <c r="S26" s="4"/>
       <c r="T26" s="15"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="13"/>
+    <row r="27" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -2738,14 +2772,14 @@
       <c r="T27" s="13"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
+      <c r="A28" s="52">
         <v>5</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="13"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -2754,14 +2788,14 @@
       <c r="T28" s="13"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A29" s="17">
+      <c r="A29" s="55">
         <v>20</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="13"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
       <c r="O29" s="10">
         <v>5</v>
       </c>
@@ -2772,14 +2806,14 @@
       <c r="T29" s="13"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
+      <c r="A30" s="57">
         <v>50</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="13"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
       <c r="O30" s="17">
         <v>20</v>
       </c>
@@ -2789,15 +2823,19 @@
       <c r="S30" s="11"/>
       <c r="T30" s="13"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
+    <row r="31" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="58">
         <v>100</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="13"/>
+      <c r="B31" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59">
+        <v>19</v>
+      </c>
       <c r="O31" s="10">
         <v>50</v>
       </c>
@@ -2808,14 +2846,14 @@
       <c r="T31" s="13"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
+      <c r="A32" s="52">
         <v>200</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="13"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
       <c r="O32" s="10">
         <v>100</v>
       </c>
@@ -2865,8 +2903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AF34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3105,7 +3143,7 @@
       <c r="W8" s="18"/>
       <c r="X8" s="18"/>
       <c r="Y8" s="18"/>
-      <c r="Z8" s="33"/>
+      <c r="Z8" s="20"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
@@ -3135,34 +3173,34 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="13"/>
-      <c r="V9" s="39">
+      <c r="V9" s="26">
         <v>0.62819999999999998</v>
       </c>
-      <c r="W9" s="40">
+      <c r="W9" s="27">
         <v>0.62829999999999997</v>
       </c>
-      <c r="X9" s="40">
+      <c r="X9" s="27">
         <v>0.62860000000000005</v>
       </c>
-      <c r="Y9" s="40">
+      <c r="Y9" s="27">
         <v>1.86</v>
       </c>
-      <c r="Z9" s="41">
+      <c r="Z9" s="28">
         <v>48</v>
       </c>
-      <c r="AB9" s="39">
+      <c r="AB9" s="26">
         <v>0.5857</v>
       </c>
-      <c r="AC9" s="40">
+      <c r="AC9" s="27">
         <v>0.58630000000000004</v>
       </c>
-      <c r="AD9" s="40">
+      <c r="AD9" s="27">
         <v>0.58630000000000004</v>
       </c>
-      <c r="AE9" s="40">
+      <c r="AE9" s="27">
         <v>1.58</v>
       </c>
-      <c r="AF9" s="38">
+      <c r="AF9" s="25">
         <v>48</v>
       </c>
     </row>
@@ -3193,7 +3231,7 @@
       <c r="W10" s="19"/>
       <c r="X10" s="19"/>
       <c r="Y10" s="19"/>
-      <c r="Z10" s="34"/>
+      <c r="Z10" s="21"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
@@ -3206,7 +3244,7 @@
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="33"/>
+      <c r="F11" s="20"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -3233,14 +3271,24 @@
       <c r="AF11" s="11"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" s="44">
+      <c r="A12" s="31">
         <v>5</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46"/>
+      <c r="B12" s="32">
+        <v>0.54159999999999997</v>
+      </c>
+      <c r="C12" s="32">
+        <v>0.54090000000000005</v>
+      </c>
+      <c r="D12" s="32">
+        <v>0.54210000000000003</v>
+      </c>
+      <c r="E12" s="32">
+        <v>19.36</v>
+      </c>
+      <c r="F12" s="33">
+        <v>106</v>
+      </c>
       <c r="H12" s="10">
         <v>5</v>
       </c>
@@ -3269,14 +3317,24 @@
       <c r="AF12" s="11"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" s="47">
+      <c r="A13" s="34">
         <v>20</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
+      <c r="B13" s="35">
+        <v>0.80810000000000004</v>
+      </c>
+      <c r="C13" s="35">
+        <v>0.80679999999999996</v>
+      </c>
+      <c r="D13" s="35">
+        <v>0.80710000000000004</v>
+      </c>
+      <c r="E13" s="35">
+        <v>115.55</v>
+      </c>
+      <c r="F13" s="36">
+        <v>64</v>
+      </c>
       <c r="H13" s="17">
         <v>20</v>
       </c>
@@ -3305,14 +3363,18 @@
       <c r="AF13" s="11"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" s="50">
+      <c r="A14" s="37">
         <v>50</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36">
+        <v>106</v>
+      </c>
       <c r="H14" s="10">
         <v>50</v>
       </c>
@@ -3341,14 +3403,18 @@
       <c r="AF14" s="11"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A15" s="50">
+      <c r="A15" s="37">
         <v>100</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
+      <c r="B15" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36">
+        <v>64</v>
+      </c>
       <c r="H15" s="10">
         <v>100</v>
       </c>
@@ -3377,16 +3443,14 @@
       <c r="AF15" s="11"/>
     </row>
     <row r="16" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="51">
+      <c r="A16" s="38">
         <v>200</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="53">
-        <v>111</v>
-      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
       <c r="H16" s="10">
         <v>200</v>
       </c>
@@ -3413,12 +3477,12 @@
       <c r="AF16" s="11"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>

--- a/Resumen_resultados.xlsx
+++ b/Resumen_resultados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="72" windowWidth="19416" windowHeight="9528" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="70" windowWidth="19420" windowHeight="9530"/>
   </bookViews>
   <sheets>
     <sheet name="Adult" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="22">
   <si>
     <t>NC</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>kusanagi</t>
+  </si>
+  <si>
+    <t>Tras arreglo cache:</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -458,6 +461,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,53 +766,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AG34"/>
+  <dimension ref="B1:AG35"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.77734375" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" customWidth="1"/>
-    <col min="9" max="9" width="3.88671875" customWidth="1"/>
-    <col min="10" max="10" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.109375" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" customWidth="1"/>
-    <col min="16" max="16" width="4.6640625" customWidth="1"/>
-    <col min="17" max="17" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.109375" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" customWidth="1"/>
-    <col min="23" max="23" width="1.21875" customWidth="1"/>
-    <col min="24" max="24" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.08984375" customWidth="1"/>
+    <col min="2" max="2" width="3.90625" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.81640625" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" customWidth="1"/>
+    <col min="9" max="9" width="3.90625" customWidth="1"/>
+    <col min="10" max="10" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.08984375" customWidth="1"/>
+    <col min="15" max="15" width="8.6328125" customWidth="1"/>
+    <col min="16" max="16" width="4.6328125" customWidth="1"/>
+    <col min="17" max="17" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.08984375" customWidth="1"/>
+    <col min="22" max="22" width="8.6328125" customWidth="1"/>
+    <col min="23" max="23" width="1.1796875" customWidth="1"/>
+    <col min="24" max="24" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.90625" customWidth="1"/>
     <col min="29" max="29" width="2" customWidth="1"/>
-    <col min="30" max="30" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -822,12 +829,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="P4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -913,7 +920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -987,7 +994,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>20</v>
       </c>
@@ -1047,7 +1054,7 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>50</v>
       </c>
@@ -1107,7 +1114,7 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>100</v>
       </c>
@@ -1170,7 +1177,7 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -1241,7 +1248,7 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="41">
         <v>5</v>
       </c>
@@ -1307,7 +1314,7 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="44">
         <v>20</v>
       </c>
@@ -1373,7 +1380,7 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="44">
         <v>50</v>
       </c>
@@ -1457,6 +1464,10 @@
       </c>
       <c r="G15" s="49">
         <v>67</v>
+      </c>
+      <c r="H15">
+        <f>F15/G15</f>
+        <v>7.9850746268656708E-2</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1535,7 +1546,7 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:33" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1565,231 +1576,280 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="P20" t="s">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="61">
+        <v>100</v>
+      </c>
+      <c r="C19" s="62">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="D19" s="62">
+        <v>0.89610000000000001</v>
+      </c>
+      <c r="E19" s="62">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="F19" s="62">
+        <v>6.28</v>
+      </c>
+      <c r="G19" s="63">
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <f>F19/G19</f>
+        <v>0.52333333333333332</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="61">
+        <v>200</v>
+      </c>
+      <c r="C20" s="62">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="D20" s="62">
+        <v>0.89610000000000001</v>
+      </c>
+      <c r="E20" s="62">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="F20" s="62">
+        <v>33</v>
+      </c>
+      <c r="G20" s="63">
+        <v>12</v>
+      </c>
+      <c r="H20">
+        <f>F20/G20</f>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="61">
+        <v>200</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="64">
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <f>F21/G21</f>
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="8" t="s">
+    <row r="22" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B22" s="41" t="s">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B23" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C23" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D23" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E23" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="F23" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="43" t="s">
+      <c r="G23" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="R23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="S23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="T23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="U23" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B23" s="44">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B24" s="44">
         <v>5</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C24" s="45">
         <v>0.77959999999999996</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D24" s="45">
         <v>0.78269999999999995</v>
       </c>
-      <c r="E23" s="45">
+      <c r="E24" s="45">
         <v>0.78669999999999995</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F24" s="45">
         <v>0.33</v>
-      </c>
-      <c r="G23" s="46">
-        <v>19</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="P23" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="R23" s="1">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0.7974</v>
-      </c>
-      <c r="T23" s="4">
-        <v>2.87</v>
-      </c>
-      <c r="U23" s="1"/>
-      <c r="Z23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA23" s="6"/>
-    </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B24" s="44">
-        <v>20</v>
-      </c>
-      <c r="C24" s="45">
-        <v>0.85219999999999996</v>
-      </c>
-      <c r="D24" s="45">
-        <v>0.8569</v>
-      </c>
-      <c r="E24" s="45">
-        <v>0.85440000000000005</v>
-      </c>
-      <c r="F24" s="45">
-        <v>2.95</v>
       </c>
       <c r="G24" s="46">
         <v>19</v>
       </c>
       <c r="H24" s="9"/>
       <c r="P24" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0.7974</v>
+      </c>
+      <c r="T24" s="4">
+        <v>2.87</v>
+      </c>
+      <c r="U24" s="1"/>
+      <c r="Z24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA24" s="6"/>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B25" s="44">
         <v>20</v>
       </c>
-      <c r="Q24" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="R24" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="S24" s="1">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="T24" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="U24" s="1"/>
-    </row>
-    <row r="25" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="47">
-        <v>50</v>
-      </c>
-      <c r="C25" s="48">
-        <v>0.89970000000000006</v>
-      </c>
-      <c r="D25" s="48">
-        <v>0.8982</v>
-      </c>
-      <c r="E25" s="48">
-        <v>0.89690000000000003</v>
-      </c>
-      <c r="F25" s="48">
-        <v>6.23</v>
-      </c>
-      <c r="G25" s="49">
+      <c r="C25" s="45">
+        <v>0.85219999999999996</v>
+      </c>
+      <c r="D25" s="45">
+        <v>0.8569</v>
+      </c>
+      <c r="E25" s="45">
+        <v>0.85440000000000005</v>
+      </c>
+      <c r="F25" s="45">
+        <v>2.95</v>
+      </c>
+      <c r="G25" s="46">
         <v>19</v>
       </c>
       <c r="H25" s="9"/>
       <c r="P25" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="T25" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="47">
         <v>50</v>
       </c>
-      <c r="Q25" s="1">
-        <v>0.74970000000000003</v>
-      </c>
-      <c r="R25" s="1">
-        <v>0.75788</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0.75290000000000001</v>
-      </c>
-      <c r="T25" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="U25" s="1"/>
-    </row>
-    <row r="26" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="47">
-        <v>100</v>
-      </c>
       <c r="C26" s="48">
-        <v>0.90159999999999996</v>
+        <v>0.89970000000000006</v>
       </c>
       <c r="D26" s="48">
-        <v>0.90169999999999995</v>
+        <v>0.8982</v>
       </c>
       <c r="E26" s="48">
-        <v>0.89959999999999996</v>
+        <v>0.89690000000000003</v>
       </c>
       <c r="F26" s="48">
-        <v>69</v>
+        <v>6.23</v>
       </c>
       <c r="G26" s="49">
         <v>19</v>
       </c>
       <c r="H26" s="9"/>
       <c r="P26" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0.74970000000000003</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0.75788</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0.75290000000000001</v>
+      </c>
+      <c r="T26" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="47">
         <v>100</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="C27" s="48">
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="D27" s="48">
+        <v>0.90169999999999995</v>
+      </c>
+      <c r="E27" s="48">
+        <v>0.89959999999999996</v>
+      </c>
+      <c r="F27" s="48">
+        <v>69</v>
+      </c>
+      <c r="G27" s="49">
+        <v>19</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="P27" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="1">
         <v>0.78</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R27" s="1">
         <v>0.77</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S27" s="1">
         <v>0.78</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T27" s="4">
         <v>2.33</v>
       </c>
-      <c r="U26" s="4"/>
-    </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="9"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-    </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="U27" s="4"/>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
       <c r="H28" s="9"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -1798,7 +1858,7 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1806,16 +1866,14 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="9"/>
-      <c r="P29" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1823,52 +1881,43 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="9"/>
-      <c r="P30" s="1">
+      <c r="P30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B31" s="1"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="9"/>
+      <c r="P31" s="1">
         <v>5</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="Q31" s="10">
         <v>0.6996</v>
       </c>
-      <c r="R30" s="10">
+      <c r="R31" s="10">
         <v>0.7107</v>
       </c>
-      <c r="S30" s="10">
+      <c r="S31" s="10">
         <v>0.70340000000000003</v>
       </c>
-      <c r="T30" s="11">
+      <c r="T31" s="11">
         <v>4.45</v>
-      </c>
-      <c r="U30" s="11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="P31" s="1">
-        <v>20</v>
-      </c>
-      <c r="Q31" s="10">
-        <v>0.82840000000000003</v>
-      </c>
-      <c r="R31" s="10">
-        <v>0.82469999999999999</v>
-      </c>
-      <c r="S31" s="10">
-        <v>0.82809999999999995</v>
-      </c>
-      <c r="T31" s="11">
-        <v>4.5</v>
       </c>
       <c r="U31" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1876,16 +1925,16 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="P32" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="Q32" s="10">
-        <v>0.82550000000000001</v>
+        <v>0.82840000000000003</v>
       </c>
       <c r="R32" s="10">
-        <v>0.82269999999999999</v>
+        <v>0.82469999999999999</v>
       </c>
       <c r="S32" s="10">
-        <v>0.8256</v>
+        <v>0.82809999999999995</v>
       </c>
       <c r="T32" s="11">
         <v>4.5</v>
@@ -1894,7 +1943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1902,37 +1951,63 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="P33" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="10">
-        <v>0.74339999999999995</v>
+        <v>0.82550000000000001</v>
       </c>
       <c r="R33" s="10">
-        <v>0.75139999999999996</v>
-      </c>
-      <c r="S33" s="12">
-        <v>0.74670000000000003</v>
+        <v>0.82269999999999999</v>
+      </c>
+      <c r="S33" s="10">
+        <v>0.8256</v>
       </c>
       <c r="T33" s="11">
-        <v>4.57</v>
+        <v>4.5</v>
       </c>
       <c r="U33" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
+      <c r="P34" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>0.74339999999999995</v>
+      </c>
+      <c r="R34" s="10">
+        <v>0.75139999999999996</v>
+      </c>
+      <c r="S34" s="12">
+        <v>0.74670000000000003</v>
+      </c>
+      <c r="T34" s="11">
+        <v>4.57</v>
+      </c>
+      <c r="U34" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1944,47 +2019,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AF34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
-    <col min="12" max="12" width="5.44140625" customWidth="1"/>
-    <col min="13" max="13" width="9.88671875" customWidth="1"/>
-    <col min="14" max="14" width="4.77734375" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" customWidth="1"/>
-    <col min="16" max="16" width="8.44140625" customWidth="1"/>
-    <col min="17" max="17" width="8.77734375" customWidth="1"/>
-    <col min="18" max="18" width="8.33203125" customWidth="1"/>
-    <col min="19" max="19" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.90625" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" customWidth="1"/>
+    <col min="4" max="4" width="8.36328125" customWidth="1"/>
+    <col min="5" max="5" width="4.08984375" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" customWidth="1"/>
+    <col min="7" max="7" width="4.36328125" customWidth="1"/>
+    <col min="8" max="8" width="4.6328125" customWidth="1"/>
+    <col min="9" max="9" width="8.453125" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" customWidth="1"/>
+    <col min="11" max="11" width="8.36328125" customWidth="1"/>
+    <col min="12" max="12" width="5.453125" customWidth="1"/>
+    <col min="13" max="13" width="9.90625" customWidth="1"/>
+    <col min="14" max="14" width="4.81640625" customWidth="1"/>
+    <col min="15" max="15" width="7.08984375" customWidth="1"/>
+    <col min="16" max="16" width="8.453125" customWidth="1"/>
+    <col min="17" max="17" width="8.81640625" customWidth="1"/>
+    <col min="18" max="18" width="8.36328125" customWidth="1"/>
+    <col min="19" max="19" width="9.90625" customWidth="1"/>
     <col min="20" max="20" width="3" customWidth="1"/>
-    <col min="21" max="21" width="0.77734375" customWidth="1"/>
-    <col min="22" max="22" width="5.44140625" customWidth="1"/>
-    <col min="23" max="23" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.44140625" customWidth="1"/>
-    <col min="27" max="27" width="3.88671875" customWidth="1"/>
-    <col min="28" max="28" width="6.44140625" customWidth="1"/>
-    <col min="29" max="29" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="0.81640625" customWidth="1"/>
+    <col min="22" max="22" width="5.453125" customWidth="1"/>
+    <col min="23" max="23" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.453125" customWidth="1"/>
+    <col min="27" max="27" width="3.90625" customWidth="1"/>
+    <col min="28" max="28" width="6.453125" customWidth="1"/>
+    <col min="29" max="29" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2001,7 +2076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2083,7 +2158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2151,7 +2226,7 @@
       </c>
       <c r="AF6" s="11"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>20</v>
       </c>
@@ -2317,7 +2392,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>200</v>
       </c>
@@ -2383,7 +2458,7 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="11"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="52">
         <v>5</v>
       </c>
@@ -2429,7 +2504,7 @@
       <c r="AE12" s="1"/>
       <c r="AF12" s="11"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="55">
         <v>20</v>
       </c>
@@ -2475,7 +2550,7 @@
       <c r="AE13" s="1"/>
       <c r="AF13" s="11"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="57">
         <v>50</v>
       </c>
@@ -2567,7 +2642,7 @@
       <c r="AE15" s="1"/>
       <c r="AF15" s="11"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -2599,7 +2674,7 @@
       <c r="AE16" s="1"/>
       <c r="AF16" s="11"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2629,7 +2704,7 @@
       <c r="AE17" s="1"/>
       <c r="AF17" s="11"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2637,7 +2712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -2671,7 +2746,7 @@
       </c>
       <c r="T22" s="13"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -2693,7 +2768,7 @@
       </c>
       <c r="X23" s="6"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2711,7 +2786,7 @@
       <c r="S24" s="5"/>
       <c r="T24" s="16"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>50</v>
       </c>
@@ -2729,7 +2804,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="15"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2771,7 +2846,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="13"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" s="52">
         <v>5</v>
       </c>
@@ -2787,7 +2862,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="13"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" s="55">
         <v>20</v>
       </c>
@@ -2805,7 +2880,7 @@
       <c r="S29" s="11"/>
       <c r="T29" s="13"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30" s="57">
         <v>50</v>
       </c>
@@ -2823,7 +2898,7 @@
       <c r="S30" s="11"/>
       <c r="T30" s="13"/>
     </row>
-    <row r="31" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="58">
         <v>100</v>
       </c>
@@ -2845,7 +2920,7 @@
       <c r="S31" s="11"/>
       <c r="T31" s="13"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32" s="52">
         <v>200</v>
       </c>
@@ -2863,7 +2938,7 @@
       <c r="S32" s="11"/>
       <c r="T32" s="13"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2879,7 +2954,7 @@
       <c r="S33" s="11"/>
       <c r="T33" s="13"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2907,43 +2982,43 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
-    <col min="12" max="12" width="5.44140625" customWidth="1"/>
-    <col min="13" max="13" width="9.88671875" customWidth="1"/>
-    <col min="14" max="14" width="4.77734375" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" customWidth="1"/>
-    <col min="16" max="16" width="8.44140625" customWidth="1"/>
-    <col min="17" max="17" width="8.77734375" customWidth="1"/>
-    <col min="18" max="18" width="8.33203125" customWidth="1"/>
-    <col min="19" max="19" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.90625" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" customWidth="1"/>
+    <col min="4" max="4" width="8.36328125" customWidth="1"/>
+    <col min="5" max="5" width="4.08984375" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" customWidth="1"/>
+    <col min="7" max="7" width="4.36328125" customWidth="1"/>
+    <col min="8" max="8" width="4.6328125" customWidth="1"/>
+    <col min="9" max="9" width="8.453125" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" customWidth="1"/>
+    <col min="11" max="11" width="8.36328125" customWidth="1"/>
+    <col min="12" max="12" width="5.453125" customWidth="1"/>
+    <col min="13" max="13" width="9.90625" customWidth="1"/>
+    <col min="14" max="14" width="4.81640625" customWidth="1"/>
+    <col min="15" max="15" width="7.08984375" customWidth="1"/>
+    <col min="16" max="16" width="8.453125" customWidth="1"/>
+    <col min="17" max="17" width="8.81640625" customWidth="1"/>
+    <col min="18" max="18" width="8.36328125" customWidth="1"/>
+    <col min="19" max="19" width="9.90625" customWidth="1"/>
     <col min="20" max="20" width="3" customWidth="1"/>
-    <col min="21" max="21" width="0.77734375" customWidth="1"/>
-    <col min="22" max="22" width="5.44140625" customWidth="1"/>
-    <col min="23" max="23" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.44140625" customWidth="1"/>
-    <col min="27" max="27" width="3.88671875" customWidth="1"/>
-    <col min="28" max="28" width="6.44140625" customWidth="1"/>
-    <col min="29" max="29" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="0.81640625" customWidth="1"/>
+    <col min="22" max="22" width="5.453125" customWidth="1"/>
+    <col min="23" max="23" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.453125" customWidth="1"/>
+    <col min="27" max="27" width="3.90625" customWidth="1"/>
+    <col min="28" max="28" width="6.453125" customWidth="1"/>
+    <col min="29" max="29" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2960,7 +3035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -3042,7 +3117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3078,7 +3153,7 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="11"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>20</v>
       </c>
@@ -3204,7 +3279,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>200</v>
       </c>
@@ -3270,7 +3345,7 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="11"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="31">
         <v>5</v>
       </c>
@@ -3316,7 +3391,7 @@
       <c r="AE12" s="1"/>
       <c r="AF12" s="11"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="34">
         <v>20</v>
       </c>
@@ -3362,7 +3437,7 @@
       <c r="AE13" s="1"/>
       <c r="AF13" s="11"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="37">
         <v>50</v>
       </c>
@@ -3402,7 +3477,7 @@
       <c r="AE14" s="1"/>
       <c r="AF14" s="11"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="37">
         <v>100</v>
       </c>
@@ -3442,7 +3517,7 @@
       <c r="AE15" s="1"/>
       <c r="AF15" s="11"/>
     </row>
-    <row r="16" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="38">
         <v>200</v>
       </c>
@@ -3476,7 +3551,7 @@
       <c r="AE16" s="1"/>
       <c r="AF16" s="11"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -3506,7 +3581,7 @@
       <c r="AE17" s="1"/>
       <c r="AF17" s="11"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -3514,7 +3589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -3548,7 +3623,7 @@
       </c>
       <c r="T22" s="13"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -3570,7 +3645,7 @@
       </c>
       <c r="X23" s="6"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -3588,7 +3663,7 @@
       <c r="S24" s="5"/>
       <c r="T24" s="16"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>50</v>
       </c>
@@ -3606,7 +3681,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="15"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3622,7 +3697,7 @@
       <c r="S26" s="4"/>
       <c r="T26" s="15"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3636,7 +3711,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="13"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>5</v>
       </c>
@@ -3652,7 +3727,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="13"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" s="17">
         <v>20</v>
       </c>
@@ -3670,7 +3745,7 @@
       <c r="S29" s="11"/>
       <c r="T29" s="13"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30" s="10">
         <v>50</v>
       </c>
@@ -3688,7 +3763,7 @@
       <c r="S30" s="11"/>
       <c r="T30" s="13"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
         <v>100</v>
       </c>
@@ -3706,7 +3781,7 @@
       <c r="S31" s="11"/>
       <c r="T31" s="13"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32" s="10">
         <v>200</v>
       </c>
@@ -3724,7 +3799,7 @@
       <c r="S32" s="11"/>
       <c r="T32" s="13"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3740,7 +3815,7 @@
       <c r="S33" s="11"/>
       <c r="T33" s="13"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
